--- a/model_material/2_U_values/U-Values_final.xlsx
+++ b/model_material/2_U_values/U-Values_final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13300" tabRatio="813" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="all_u_values" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">min_u_values!$G$1:$Q$11</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">floor!$B$1:$B$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">roof!$B$1:$B$50</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">roof!$B$1:$B$50</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">floor!$B$1:$B$24</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">wall!$B$1:$B$54</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">wall!$B$1:$B$54</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">roof!$B$1:$B$50</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">wall!$B$1:$B$54</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">floor!$B$1:$B$24</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">roof!$B$1:$B$50</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">roof!$B$1:$B$50</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">wall!$B$1:$B$54</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">floor!$B$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -684,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -703,6 +703,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3706,6 +3709,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3780,6 +3784,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4214,6 +4219,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4302,6 +4308,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4715,6 +4722,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4789,6 +4797,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4860,7 +4869,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4965,7 +4974,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5070,17 +5079,13 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{ADB84CFC-259D-40EB-A6A7-6737623F9C59}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{ADB84CFC-259D-40EB-A6A7-6737623F9C59}" formatIdx="0">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r">
               <cx:binSize val="0.5"/>
             </cx:binning>
           </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{6E53AE0B-6872-49DE-B97D-1806E489DEAD}">
-          <cx:axisId val="2"/>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
@@ -5090,11 +5095,6 @@
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="2">
-        <cx:valScaling max="1" min="0"/>
-        <cx:units unit="percentage"/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -5107,7 +5107,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5182,7 +5182,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5261,7 +5261,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -14064,29 +14064,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" style="6"/>
-    <col min="6" max="6" width="9.1796875" style="6"/>
-    <col min="9" max="9" width="9.1796875" style="6"/>
-    <col min="12" max="12" width="9.1796875" style="6"/>
-    <col min="15" max="15" width="9.1796875" style="6"/>
-    <col min="18" max="18" width="9.1796875" style="6"/>
-    <col min="21" max="21" width="9.1796875" style="6"/>
-    <col min="24" max="24" width="9.1796875" style="6"/>
-    <col min="27" max="27" width="9.1796875" style="6"/>
-    <col min="30" max="30" width="9.1796875" style="6"/>
-    <col min="33" max="33" width="9.1796875" style="6"/>
-    <col min="36" max="36" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="9" max="9" width="9.140625" style="6"/>
+    <col min="12" max="12" width="9.140625" style="6"/>
+    <col min="15" max="15" width="9.140625" style="6"/>
+    <col min="18" max="18" width="9.140625" style="6"/>
+    <col min="22" max="22" width="9.140625" style="6"/>
+    <col min="25" max="25" width="9.140625" style="6"/>
+    <col min="28" max="28" width="9.140625" style="6"/>
+    <col min="32" max="32" width="9.140625" style="6"/>
+    <col min="35" max="35" width="9.140625" style="6"/>
+    <col min="38" max="38" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
@@ -14147,56 +14147,56 @@
       <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14245,56 +14245,56 @@
       <c r="T2">
         <v>0.52</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <v>0.218936773</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>60</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.129</v>
       </c>
-      <c r="X2" s="6">
+      <c r="Y2" s="6">
         <v>5.3770693000000001E-2</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>30</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>0.18</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="6">
         <v>0.14331308600000001</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>60</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0.18</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AF2" s="6">
         <v>0.221263927</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>60</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AI2" s="6">
         <v>0.158415842</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>30</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>0.1</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AL2" s="6">
         <v>7.8528714999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -14319,35 +14319,35 @@
       <c r="T3">
         <v>0.31</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>0.28030608099999998</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>42</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.10299999999999999</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="6">
         <v>0.116077772</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AF3" s="6">
         <v>1.8267716540000001</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>42</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>0.16</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AI3" s="6">
         <v>0.101199831</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>2.1284403670000001</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>2.6100120059999998</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
         <f>MIN(C2:C5)</f>
         <v>1.3727810650000001</v>
@@ -14418,52 +14418,52 @@
         <f>MIN(T2:T5)</f>
         <v>0.31</v>
       </c>
-      <c r="U6" s="7">
-        <f>MIN(U2:U5)</f>
+      <c r="V6" s="7">
+        <f>MIN(V2:V5)</f>
         <v>0.218936773</v>
       </c>
-      <c r="W6" s="4">
-        <f>MIN(W2:W5)</f>
+      <c r="X6" s="4">
+        <f>MIN(X2:X5)</f>
         <v>0.10299999999999999</v>
       </c>
-      <c r="X6" s="7">
-        <f>MIN(X2:X5)</f>
+      <c r="Y6" s="7">
+        <f>MIN(Y2:Y5)</f>
         <v>5.3770693000000001E-2</v>
       </c>
-      <c r="Z6" s="4">
-        <f>MIN(Z2:Z5)</f>
+      <c r="AA6" s="4">
+        <f>MIN(AA2:AA5)</f>
         <v>0.18</v>
       </c>
-      <c r="AA6" s="7">
-        <f>MIN(AA2:AA5)</f>
+      <c r="AB6" s="7">
+        <f>MIN(AB2:AB5)</f>
         <v>0.14331308600000001</v>
       </c>
-      <c r="AC6" s="4">
-        <f>MIN(AC2:AC5)</f>
+      <c r="AD6" s="4">
+        <f>MIN(AD2:AD5)</f>
         <v>0.18</v>
       </c>
-      <c r="AD6" s="7">
-        <f>MIN(AD2:AD5)</f>
+      <c r="AF6" s="7">
+        <f>MIN(AF2:AF5)</f>
         <v>0.221263927</v>
       </c>
-      <c r="AF6" s="4">
-        <f>MIN(AF2:AF5)</f>
+      <c r="AH6" s="4">
+        <f>MIN(AH2:AH5)</f>
         <v>0.16</v>
       </c>
-      <c r="AG6" s="7">
-        <f>MIN(AG2:AG5)</f>
+      <c r="AI6" s="7">
+        <f>MIN(AI2:AI5)</f>
         <v>0.101199831</v>
       </c>
-      <c r="AI6" s="4">
-        <f>MIN(AI2:AI5)</f>
+      <c r="AK6" s="4">
+        <f>MIN(AK2:AK5)</f>
         <v>0.1</v>
       </c>
-      <c r="AJ6" s="7">
-        <f>MIN(AJ2:AJ5)</f>
+      <c r="AL6" s="7">
+        <f>MIN(AL2:AL5)</f>
         <v>7.8528714999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -14503,41 +14503,41 @@
       <c r="S7" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <v>0.49943311499999998</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Y7" s="6">
         <v>0.242380342</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AB7" s="6">
         <v>0.20647326499999999</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>43</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AF7" s="6">
         <v>0.61813337499999998</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AI7" s="6">
         <v>0.66375085599999994</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AJ7" t="s">
         <v>43</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AL7" s="6">
         <v>0.40594925599999998</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -14577,35 +14577,35 @@
       <c r="S8" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="6">
+      <c r="V8" s="6">
         <v>0.18174316800000001</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>44</v>
       </c>
-      <c r="X8" s="6">
+      <c r="Y8" s="6">
         <v>0.40776152999999998</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>44</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AF8" s="6">
         <v>0.201975026</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>44</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AI8" s="6">
         <v>0.53150795200000001</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AJ8" t="s">
         <v>44</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AL8" s="6">
         <v>0.142361086</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -14636,14 +14636,14 @@
       <c r="R9" s="6">
         <v>3.2</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
         <v>45</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AL9" s="6">
         <v>0.41677233899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>0.17961290299999999</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>0.229778805</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>0.22619434499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>0.57284637100000002</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>0.52855406999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>0.44592516700000001</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>0.36420999599999998</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>0.345786963</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>0.308401276</v>
       </c>
     </row>
-    <row r="19" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="7">
         <f>MIN(C7:C18)</f>
         <v>0.17961290299999999</v>
@@ -14764,52 +14764,54 @@
         <f>MIN(T7:T18)</f>
         <v>0</v>
       </c>
-      <c r="U19" s="7">
-        <f>MIN(U7:U18)</f>
+      <c r="U19" s="3"/>
+      <c r="V19" s="7">
+        <f>MIN(V7:V18)</f>
         <v>0.18174316800000001</v>
       </c>
-      <c r="W19" s="3">
-        <f>MIN(W7:W18)</f>
+      <c r="X19" s="3">
+        <f>MIN(X7:X18)</f>
         <v>0</v>
       </c>
-      <c r="X19" s="7">
-        <f>MIN(X7:X18)</f>
+      <c r="Y19" s="7">
+        <f>MIN(Y7:Y18)</f>
         <v>0.242380342</v>
       </c>
-      <c r="Z19" s="3">
-        <f>MIN(Z7:Z18)</f>
+      <c r="AA19" s="3">
+        <f>MIN(AA7:AA18)</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="7">
-        <f>MIN(AA7:AA18)</f>
+      <c r="AB19" s="7">
+        <f>MIN(AB7:AB18)</f>
         <v>0.20647326499999999</v>
       </c>
-      <c r="AC19" s="3">
-        <f>MIN(AC7:AC18)</f>
+      <c r="AD19" s="3">
+        <f>MIN(AD7:AD18)</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="7">
-        <f>MIN(AD7:AD18)</f>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="7">
+        <f>MIN(AF7:AF18)</f>
         <v>0.201975026</v>
       </c>
-      <c r="AF19" s="3">
-        <f>MIN(AF7:AF18)</f>
+      <c r="AH19" s="3">
+        <f>MIN(AH7:AH18)</f>
         <v>0</v>
       </c>
-      <c r="AG19" s="7">
-        <f>MIN(AG7:AG18)</f>
+      <c r="AI19" s="7">
+        <f>MIN(AI7:AI18)</f>
         <v>0.53150795200000001</v>
       </c>
-      <c r="AI19" s="3">
-        <f>MIN(AI7:AI18)</f>
+      <c r="AK19" s="3">
+        <f>MIN(AK7:AK18)</f>
         <v>0</v>
       </c>
-      <c r="AJ19" s="7">
-        <f>MIN(AJ7:AJ18)</f>
+      <c r="AL19" s="7">
+        <f>MIN(AL7:AL18)</f>
         <v>0.142361086</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -14867,56 +14869,62 @@
       <c r="T20">
         <v>0.21</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="1">
+        <v>0.120481927710843</v>
+      </c>
+      <c r="V20" s="19">
         <v>0.23255814</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>46</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X20" s="6">
+      <c r="Y20" s="6">
         <v>0.36496350399999999</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>56</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.11</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AB20" s="6">
         <v>0.71322021300000005</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>46</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.17</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AE20" s="1">
+        <v>0.14748907086705201</v>
+      </c>
+      <c r="AF20" s="6">
         <v>0.16737500199999999</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AG20" t="s">
         <v>46</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>0.11</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AI20" s="6">
         <v>0.121312587</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AJ20" t="s">
         <v>46</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <v>0.13</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AL20" s="6">
         <v>0.37077426400000002</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -14959,47 +14967,53 @@
       <c r="T21">
         <v>0.27</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="1">
+        <v>0.13675213675213599</v>
+      </c>
+      <c r="V21" s="19">
         <v>0.231884058</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>47</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X21" s="6">
+      <c r="Y21" s="6">
         <v>7.1111111000000005E-2</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>47</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.15</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AE21" s="1">
+        <v>0.12238237693772</v>
+      </c>
+      <c r="AF21" s="6">
         <v>0.14164305899999999</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AG21" t="s">
         <v>47</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AI21" s="6">
         <v>0.14208601800000001</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AJ21" t="s">
         <v>47</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
         <v>0.13</v>
       </c>
-      <c r="AJ21" s="6">
+      <c r="AL21" s="6">
         <v>0.277475517</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -15015,35 +15029,40 @@
       <c r="I22" s="6">
         <v>0.126811594</v>
       </c>
-      <c r="V22" t="s">
+      <c r="U22" s="1"/>
+      <c r="V22" s="19"/>
+      <c r="W22" t="s">
         <v>48</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X22" s="6">
+      <c r="Y22" s="6">
         <v>0.151221631</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>48</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.21</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AE22" s="1">
+        <v>0.19067796610169399</v>
+      </c>
+      <c r="AF22" s="6">
         <v>0.24193548400000001</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AJ22" t="s">
         <v>48</v>
       </c>
-      <c r="AI22">
+      <c r="AK22">
         <v>0.11</v>
       </c>
-      <c r="AJ22" s="6">
+      <c r="AL22" s="6">
         <v>0.17902151899999999</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="7">
         <f>MIN(C20:C22)</f>
         <v>0.17712177100000001</v>
@@ -15092,52 +15111,60 @@
         <f>MIN(T20:T22)</f>
         <v>0.21</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="18">
         <f>MIN(U20:U22)</f>
+        <v>0.120481927710843</v>
+      </c>
+      <c r="V23" s="20">
+        <f>MIN(V20:V22)</f>
         <v>0.231884058</v>
       </c>
-      <c r="W23" s="3">
-        <f>MIN(W20:W22)</f>
+      <c r="X23" s="3">
+        <f>MIN(X20:X22)</f>
         <v>0.10100000000000001</v>
       </c>
-      <c r="X23" s="7">
-        <f>MIN(X20:X22)</f>
+      <c r="Y23" s="7">
+        <f>MIN(Y20:Y22)</f>
         <v>7.1111111000000005E-2</v>
       </c>
-      <c r="Z23" s="3">
-        <f>MIN(Z20:Z22)</f>
+      <c r="AA23" s="3">
+        <f>MIN(AA20:AA22)</f>
         <v>0.11</v>
       </c>
-      <c r="AA23" s="7">
-        <f>MIN(AA20:AA22)</f>
+      <c r="AB23" s="7">
+        <f>MIN(AB20:AB22)</f>
         <v>0.71322021300000005</v>
       </c>
-      <c r="AC23" s="3">
-        <f>MIN(AC20:AC22)</f>
+      <c r="AD23" s="3">
+        <f>MIN(AD20:AD22)</f>
         <v>0.15</v>
       </c>
-      <c r="AD23" s="7">
-        <f>MIN(AD20:AD22)</f>
+      <c r="AE23" s="18">
+        <f>MIN(AE20:AE22)</f>
+        <v>0.12238237693772</v>
+      </c>
+      <c r="AF23" s="7">
+        <f>MIN(AF20:AF22)</f>
         <v>0.14164305899999999</v>
       </c>
-      <c r="AF23" s="3">
-        <f>MIN(AF20:AF22)</f>
+      <c r="AH23" s="3">
+        <f>MIN(AH20:AH22)</f>
         <v>0.10100000000000001</v>
       </c>
-      <c r="AG23" s="7">
-        <f>MIN(AG20:AG22)</f>
+      <c r="AI23" s="7">
+        <f>MIN(AI20:AI22)</f>
         <v>0.121312587</v>
       </c>
-      <c r="AI23" s="3">
-        <f>MIN(AI20:AI22)</f>
+      <c r="AK23" s="3">
+        <f>MIN(AK20:AK22)</f>
         <v>0.11</v>
       </c>
-      <c r="AJ23" s="7">
-        <f>MIN(AJ20:AJ22)</f>
+      <c r="AL23" s="7">
+        <f>MIN(AL20:AL22)</f>
         <v>0.17902151899999999</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -15192,56 +15219,56 @@
       <c r="T24">
         <v>0.11</v>
       </c>
-      <c r="U24" s="6">
+      <c r="V24" s="6">
         <v>0.11869776899999999</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>75</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.10299999999999999</v>
       </c>
-      <c r="X24" s="6">
+      <c r="Y24" s="6">
         <v>0.10335211499999999</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>31</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.1</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AB24" s="6">
         <v>0.117168205</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>51</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.17</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AF24" s="6">
         <v>0.15046459000000001</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AG24" t="s">
         <v>51</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>0.16</v>
       </c>
-      <c r="AG24" s="6">
+      <c r="AI24" s="6">
         <v>0.16914300900000001</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AJ24" t="s">
         <v>51</v>
       </c>
-      <c r="AI24">
+      <c r="AK24">
         <v>0.09</v>
       </c>
-      <c r="AJ24" s="6">
+      <c r="AL24" s="6">
         <v>0.13490992800000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -15281,41 +15308,41 @@
       <c r="S25" t="s">
         <v>52</v>
       </c>
-      <c r="U25" s="6">
+      <c r="V25" s="6">
         <v>20</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>52</v>
       </c>
-      <c r="X25" s="6">
+      <c r="Y25" s="6">
         <v>0.85</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>52</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AF25" s="6">
         <v>0.38651455099999998</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AG25" t="s">
         <v>52</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>0.1</v>
       </c>
-      <c r="AG25" s="6">
+      <c r="AI25" s="6">
         <v>8.9367294999999999E-2</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AJ25" t="s">
         <v>52</v>
       </c>
-      <c r="AI25">
+      <c r="AK25">
         <v>0.08</v>
       </c>
-      <c r="AJ25" s="6">
+      <c r="AL25" s="6">
         <v>0.109957634</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -15331,17 +15358,17 @@
       <c r="L26" s="6">
         <v>0.18405160700000001</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>58</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.10299999999999999</v>
       </c>
-      <c r="X26" s="6">
+      <c r="Y26" s="6">
         <v>6.9164265000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -15349,7 +15376,7 @@
         <v>5.8922558999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="7">
         <f>MIN(C24:C27)</f>
@@ -15399,52 +15426,54 @@
         <f>MIN(T24:T27)</f>
         <v>0.11</v>
       </c>
-      <c r="U28" s="7">
-        <f>MIN(U24:U27)</f>
+      <c r="U28" s="3"/>
+      <c r="V28" s="7">
+        <f>MIN(V24:V27)</f>
         <v>0.11869776899999999</v>
       </c>
-      <c r="W28" s="3">
-        <f>MIN(W24:W27)</f>
+      <c r="X28" s="3">
+        <f>MIN(X24:X27)</f>
         <v>0.10299999999999999</v>
       </c>
-      <c r="X28" s="7">
-        <f>MIN(X24:X27)</f>
+      <c r="Y28" s="7">
+        <f>MIN(Y24:Y27)</f>
         <v>6.9164265000000003E-2</v>
       </c>
-      <c r="Z28" s="3">
-        <f>MIN(Z24:Z27)</f>
+      <c r="AA28" s="3">
+        <f>MIN(AA24:AA27)</f>
         <v>0.1</v>
       </c>
-      <c r="AA28" s="7">
-        <f>MIN(AA24:AA27)</f>
+      <c r="AB28" s="7">
+        <f>MIN(AB24:AB27)</f>
         <v>0.117168205</v>
       </c>
-      <c r="AC28" s="3">
-        <f>MIN(AC24:AC27)</f>
+      <c r="AD28" s="3">
+        <f>MIN(AD24:AD27)</f>
         <v>0.17</v>
       </c>
-      <c r="AD28" s="7">
-        <f>MIN(AD24:AD27)</f>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="7">
+        <f>MIN(AF24:AF27)</f>
         <v>0.15046459000000001</v>
       </c>
-      <c r="AF28" s="3">
-        <f>MIN(AF24:AF27)</f>
+      <c r="AH28" s="3">
+        <f>MIN(AH24:AH27)</f>
         <v>0.1</v>
       </c>
-      <c r="AG28" s="7">
-        <f>MIN(AG24:AG27)</f>
+      <c r="AI28" s="7">
+        <f>MIN(AI24:AI27)</f>
         <v>8.9367294999999999E-2</v>
       </c>
-      <c r="AI28" s="3">
-        <f>MIN(AI24:AI27)</f>
+      <c r="AK28" s="3">
+        <f>MIN(AK24:AK27)</f>
         <v>0.08</v>
       </c>
-      <c r="AJ28" s="7">
-        <f>MIN(AJ24:AJ27)</f>
+      <c r="AL28" s="7">
+        <f>MIN(AL24:AL27)</f>
         <v>0.109957634</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -15484,41 +15513,41 @@
       <c r="S29" t="s">
         <v>49</v>
       </c>
-      <c r="U29" s="6">
+      <c r="V29" s="6">
         <v>2.6474820139999999</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>49</v>
       </c>
-      <c r="X29" s="6">
+      <c r="Y29" s="6">
         <v>2.3896103900000001</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>49</v>
       </c>
-      <c r="AA29" s="6">
+      <c r="AB29" s="6">
         <v>0.23166023199999999</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>49</v>
       </c>
-      <c r="AD29" s="6">
+      <c r="AF29" s="6">
         <v>1.724137931</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AG29" t="s">
         <v>49</v>
       </c>
-      <c r="AG29" s="6">
+      <c r="AI29" s="6">
         <v>3.636363636</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AJ29" t="s">
         <v>73</v>
       </c>
-      <c r="AJ29" s="6">
+      <c r="AL29" s="6">
         <v>3.5935316429999999</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -15558,41 +15587,41 @@
       <c r="S30" t="s">
         <v>50</v>
       </c>
-      <c r="U30" s="6">
+      <c r="V30" s="6">
         <v>4.5153374230000001</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>50</v>
       </c>
-      <c r="X30" s="6">
+      <c r="Y30" s="6">
         <v>1.6666666670000001</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>50</v>
       </c>
-      <c r="AA30" s="6">
+      <c r="AB30" s="6">
         <v>0.33519553099999999</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>50</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AF30" s="6">
         <v>4</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AG30" t="s">
         <v>50</v>
       </c>
-      <c r="AG30" s="6">
+      <c r="AI30" s="6">
         <v>5.4669559489999999</v>
       </c>
-      <c r="AH30" t="s">
+      <c r="AJ30" t="s">
         <v>50</v>
       </c>
-      <c r="AJ30" s="6">
+      <c r="AL30" s="6">
         <v>0.294253404</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -15617,32 +15646,32 @@
       <c r="O31" s="6">
         <v>2.3896103900000001</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>57</v>
       </c>
-      <c r="X31" s="6">
+      <c r="Y31" s="6">
         <v>0.90265486699999997</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>57</v>
       </c>
-      <c r="AA31" s="6">
+      <c r="AB31" s="6">
         <v>4</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AG31" t="s">
         <v>57</v>
       </c>
-      <c r="AG31" s="6">
+      <c r="AI31" s="6">
         <v>5.449082014</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AJ31" t="s">
         <v>57</v>
       </c>
-      <c r="AJ31" s="6">
+      <c r="AL31" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -15656,7 +15685,7 @@
         <v>4.3294117649999997</v>
       </c>
     </row>
-    <row r="33" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:38" x14ac:dyDescent="0.25">
       <c r="M33" t="s">
         <v>63</v>
       </c>
@@ -15664,7 +15693,7 @@
         <v>1.5540540540000001</v>
       </c>
     </row>
-    <row r="34" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:38" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
         <v>64</v>
       </c>
@@ -15672,7 +15701,7 @@
         <v>1.0065789469999999</v>
       </c>
     </row>
-    <row r="35" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:38" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>53</v>
       </c>
@@ -15688,55 +15717,55 @@
       <c r="S35" t="s">
         <v>74</v>
       </c>
-      <c r="U35" s="6">
+      <c r="V35" s="6">
         <v>4.7619047999999997E-2</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>76</v>
       </c>
-      <c r="X35" s="6">
+      <c r="Y35" s="6">
         <v>3.076923077</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>74</v>
       </c>
-      <c r="AD35" s="6">
+      <c r="AF35" s="6">
         <v>0.21978022</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AJ35" t="s">
         <v>74</v>
       </c>
-      <c r="AJ35" s="6">
+      <c r="AL35" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:38" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>54</v>
       </c>
       <c r="I36" s="6">
         <v>502</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>77</v>
       </c>
-      <c r="X36" s="6">
+      <c r="Y36" s="6">
         <v>8.0808080000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="3:36" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
       <c r="F37" s="7"/>
       <c r="I37" s="7"/>
       <c r="L37" s="7"/>
       <c r="O37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AJ37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AL37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15752,15 +15781,15 @@
       <selection activeCell="Q11" sqref="O1:Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="5"/>
-    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="8" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>79</v>
       </c>
@@ -15795,7 +15824,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -15830,7 +15859,7 @@
         <v>5.8922558999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>72</v>
@@ -15867,7 +15896,7 @@
         <v>0.30044182600000002</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>78</v>
@@ -15904,7 +15933,7 @@
         <v>0.16848544800000001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>31</v>
@@ -15939,7 +15968,7 @@
         <v>0.17424210100000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -15978,7 +16007,7 @@
         <v>0.105094222</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>72</v>
       </c>
@@ -16014,7 +16043,7 @@
         <v>0.11869776899999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>78</v>
       </c>
@@ -16052,7 +16081,7 @@
         <v>6.9164265000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>31</v>
@@ -16091,7 +16120,7 @@
         <v>0.15046459000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -16132,7 +16161,7 @@
         <v>8.9367294999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
@@ -16168,7 +16197,7 @@
         <v>0.109957634</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>78</v>
       </c>
@@ -16179,7 +16208,7 @@
         <v>0.126811594</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>31</v>
@@ -16191,7 +16220,7 @@
         <v>0.16848544800000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -16209,7 +16238,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>72</v>
       </c>
@@ -16230,7 +16259,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
@@ -16247,7 +16276,7 @@
         <v>0.11886463799999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>31</v>
@@ -16268,7 +16297,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
@@ -16287,7 +16316,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
@@ -16306,7 +16335,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>78</v>
       </c>
@@ -16324,7 +16353,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
         <v>31</v>
@@ -16337,7 +16366,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -16364,7 +16393,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>72</v>
       </c>
@@ -16381,7 +16410,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>78</v>
       </c>
@@ -16403,7 +16432,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>31</v>
@@ -16423,7 +16452,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -16448,7 +16477,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>72</v>
       </c>
@@ -16466,7 +16495,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>78</v>
       </c>
@@ -16481,7 +16510,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>31</v>
@@ -16505,7 +16534,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -16526,7 +16555,7 @@
         <v>0.218936773</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>72</v>
       </c>
@@ -16545,7 +16574,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>78</v>
       </c>
@@ -16563,7 +16592,7 @@
         <v>0.231884058</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
         <v>31</v>
@@ -16585,7 +16614,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -16607,7 +16636,7 @@
         <v>0.11869776899999999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>72</v>
       </c>
@@ -16620,7 +16649,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>78</v>
       </c>
@@ -16643,7 +16672,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
         <v>31</v>
@@ -16662,7 +16691,7 @@
         <v>5.3770693000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
@@ -16686,7 +16715,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>72</v>
       </c>
@@ -16702,7 +16731,7 @@
         <v>7.1111111000000005E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>78</v>
       </c>
@@ -16723,7 +16752,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
         <v>31</v>
@@ -16743,13 +16772,13 @@
         <v>6.9164265000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G43" s="5" t="s">
         <v>69</v>
       </c>
@@ -16763,7 +16792,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G44" s="5"/>
       <c r="I44" s="5" t="s">
         <v>34</v>
@@ -16772,7 +16801,7 @@
         <v>0.221263927</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G45" s="5"/>
       <c r="H45" t="s">
         <v>29</v>
@@ -16784,7 +16813,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G46" s="5"/>
       <c r="I46" s="5" t="s">
         <v>34</v>
@@ -16793,7 +16822,7 @@
         <v>0.14164305899999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G47" s="5"/>
       <c r="H47" t="s">
         <v>31</v>
@@ -16805,7 +16834,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
@@ -16815,13 +16844,13 @@
         <v>0.15046459000000001</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50" s="5" t="s">
         <v>70</v>
       </c>
@@ -16835,7 +16864,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51" s="5"/>
       <c r="I51" s="5" t="s">
         <v>34</v>
@@ -16844,7 +16873,7 @@
         <v>0.101199831</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52" s="5"/>
       <c r="H52" t="s">
         <v>29</v>
@@ -16856,7 +16885,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53" s="5"/>
       <c r="I53" s="5" t="s">
         <v>34</v>
@@ -16865,7 +16894,7 @@
         <v>0.121312587</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" s="5"/>
       <c r="H54" t="s">
         <v>31</v>
@@ -16877,7 +16906,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5" t="s">
@@ -16887,13 +16916,13 @@
         <v>8.9367294999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57" s="5" t="s">
         <v>71</v>
       </c>
@@ -16907,7 +16936,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="I58" s="5" t="s">
         <v>34</v>
       </c>
@@ -16915,7 +16944,7 @@
         <v>7.8528714999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
         <v>29</v>
       </c>
@@ -16926,7 +16955,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="I60" s="5" t="s">
         <v>34</v>
       </c>
@@ -16934,7 +16963,7 @@
         <v>0.17902151899999999</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
         <v>31</v>
       </c>
@@ -16945,7 +16974,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="I62" s="5" t="s">
         <v>34</v>
       </c>
@@ -16975,12 +17004,12 @@
       <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -16991,7 +17020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -17006,7 +17035,7 @@
         <v>0.39662620304568535</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -17021,7 +17050,7 @@
         <v>-0.19010115999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -17036,7 +17065,7 @@
         <v>0.29375234516129034</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -17051,7 +17080,7 @@
         <v>0.58637928461538458</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -17066,7 +17095,7 @@
         <v>-0.22924403888888892</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -17081,7 +17110,7 @@
         <v>0.36750105625000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -17096,7 +17125,7 @@
         <v>0.21471285000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -17107,7 +17136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -17122,7 +17151,7 @@
         <v>-4.1840561403508697E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -17137,7 +17166,7 @@
         <v>-0.26811593999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -17152,7 +17181,7 @@
         <v>-0.22286356190476186</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -17167,7 +17196,7 @@
         <v>-1.0081114727272729</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -17182,7 +17211,7 @@
         <v>-0.10420980000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -17197,7 +17226,7 @@
         <v>0.35353535454545448</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -17212,7 +17241,7 @@
         <v>5.5712940000000044E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -17227,7 +17256,7 @@
         <v>-0.10284169999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -17242,15 +17271,15 @@
         <v>-0.62746835454545447</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -17261,7 +17290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -17276,7 +17305,7 @@
         <v>-1.0029455066666668</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -17291,7 +17320,7 @@
         <v>-0.53168589090909102</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -17306,7 +17335,7 @@
         <v>-0.34032385384615388</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -17321,7 +17350,7 @@
         <v>-7.907062727272722E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -17336,7 +17365,7 @@
         <v>0.46796719230769229</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -17351,7 +17380,7 @@
         <v>0.11491417647058824</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -17366,7 +17395,7 @@
         <v>0.10632705000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -17383,33 +17412,33 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -17715,13 +17744,13 @@
       <selection activeCell="A23" sqref="A20:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -17729,7 +17758,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -17737,7 +17766,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -17745,7 +17774,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -17753,7 +17782,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -17761,7 +17790,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -17769,7 +17798,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -17777,7 +17806,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -17785,7 +17814,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -17793,7 +17822,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -17801,7 +17830,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -17809,7 +17838,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -17817,7 +17846,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -17825,7 +17854,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -17833,7 +17862,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -17841,7 +17870,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -17849,7 +17878,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -17857,7 +17886,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -17865,7 +17894,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -17873,7 +17902,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -17881,7 +17910,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -17889,7 +17918,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -17897,7 +17926,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -17905,7 +17934,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -17926,16 +17955,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -17943,7 +17972,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -17951,7 +17980,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -17959,7 +17988,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -17967,7 +17996,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -17975,7 +18004,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -17983,7 +18012,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -17991,7 +18020,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -17999,7 +18028,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -18007,7 +18036,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -18015,7 +18044,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -18023,7 +18052,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -18031,7 +18060,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -18039,7 +18068,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -18047,7 +18076,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -18055,7 +18084,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -18063,7 +18092,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -18071,7 +18100,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -18079,7 +18108,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -18087,7 +18116,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -18095,7 +18124,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -18103,7 +18132,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -18111,7 +18140,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -18119,7 +18148,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -18127,7 +18156,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -18135,7 +18164,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -18143,7 +18172,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -18151,7 +18180,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -18159,7 +18188,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -18167,7 +18196,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -18175,7 +18204,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -18183,7 +18212,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -18191,7 +18220,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -18199,7 +18228,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -18207,7 +18236,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -18215,7 +18244,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -18223,7 +18252,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -18231,7 +18260,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -18239,7 +18268,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -18247,7 +18276,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -18255,7 +18284,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -18263,7 +18292,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -18271,7 +18300,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -18279,7 +18308,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -18287,7 +18316,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -18295,7 +18324,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -18303,7 +18332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -18311,7 +18340,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -18319,7 +18348,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -18327,7 +18356,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -18335,7 +18364,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -18343,7 +18372,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -18351,7 +18380,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -18359,7 +18388,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -18367,7 +18396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -18388,17 +18417,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -18406,7 +18435,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -18414,7 +18443,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>170</v>
       </c>
@@ -18422,7 +18451,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -18430,7 +18459,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -18438,7 +18467,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -18446,7 +18475,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -18454,7 +18483,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -18462,7 +18491,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -18470,7 +18499,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -18478,7 +18507,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -18486,7 +18515,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -18494,7 +18523,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -18502,7 +18531,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -18510,7 +18539,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -18518,7 +18547,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -18526,7 +18555,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -18534,7 +18563,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -18542,7 +18571,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -18550,7 +18579,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -18558,7 +18587,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -18566,7 +18595,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -18574,7 +18603,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -18582,7 +18611,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -18590,7 +18619,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -18598,7 +18627,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -18606,7 +18635,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -18614,7 +18643,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -18622,7 +18651,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>160</v>
       </c>
@@ -18630,7 +18659,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -18638,7 +18667,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -18646,7 +18675,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -18654,7 +18683,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -18662,7 +18691,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -18670,7 +18699,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -18678,7 +18707,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -18686,7 +18715,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -18694,7 +18723,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -18702,7 +18731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -18710,7 +18739,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -18718,7 +18747,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -18726,7 +18755,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>173</v>
       </c>
@@ -18734,7 +18763,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -18742,7 +18771,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -18750,7 +18779,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>151</v>
       </c>
@@ -18758,7 +18787,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>171</v>
       </c>
@@ -18766,7 +18795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -18774,7 +18803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>156</v>
       </c>
@@ -18782,12 +18811,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -18805,11 +18834,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/model_material/2_U_values/U-Values_final.xlsx
+++ b/model_material/2_U_values/U-Values_final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="813"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9900" tabRatio="813" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="all_u_values" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">min_u_values!$G$1:$Q$11</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">roof!$B$1:$B$50</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">floor!$B$1:$B$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">wall!$B$1:$B$54</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">wall!$B$1:$B$54</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">roof!$B$1:$B$50</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">roof!$B$1:$B$50</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">wall!$B$1:$B$54</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">floor!$B$1:$B$24</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">wall!$B$2:$B$55</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">floor!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">roof!$B$2:$B$49</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">wall!$B$2:$B$55</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">roof!$B$2:$B$49</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">wall!$B$2:$B$55</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">floor!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">roof!$B$2:$B$49</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">wall!$B$2:$B$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="189">
   <si>
     <t>Roof 2</t>
   </si>
@@ -367,9 +368,6 @@
     <t xml:space="preserve">Adhesive mortar </t>
   </si>
   <si>
-    <t>Ceramics</t>
-  </si>
-  <si>
     <t>Concrete wall (FE 60 kg/m³)</t>
   </si>
   <si>
@@ -532,9 +530,6 @@
     <t>Gravel</t>
   </si>
   <si>
-    <t>Stucco</t>
-  </si>
-  <si>
     <t>Substrate for vegetation</t>
   </si>
   <si>
@@ -586,9 +581,6 @@
     <t>Hard fibre board</t>
   </si>
   <si>
-    <t>Metal sheets</t>
-  </si>
-  <si>
     <t>Rafters with cellulose insulation</t>
   </si>
   <si>
@@ -602,6 +594,21 @@
   </si>
   <si>
     <t>Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cumulative frequency plot </t>
+  </si>
+  <si>
+    <t>thermal conductivity</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1997,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>charts!$D$1</c:f>
+              <c:f>charts!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2037,7 +2044,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>charts!$D$2:$D$8</c:f>
+              <c:f>charts!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2525,7 +2532,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>charts!$D$11</c:f>
+              <c:f>charts!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2578,7 +2585,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>charts!$D$12:$D$20</c:f>
+              <c:f>charts!$E$12:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3061,7 +3068,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>charts!$D$23</c:f>
+              <c:f>charts!$E$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -3111,7 +3118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>charts!$D$24:$D$31</c:f>
+              <c:f>charts!$E$24:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3584,10 +3591,88 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="673155424"/>
         <c:axId val="673160672"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>charts!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E990-445D-BB6D-EA9960F2EB22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="673155424"/>
+        <c:axId val="673160672"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="673155424"/>
         <c:scaling>
@@ -4085,10 +4170,94 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="673173136"/>
         <c:axId val="673173792"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>charts!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$D$12:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBE5-4A58-9E7D-0E06AAC4C7F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="673173136"/>
+        <c:axId val="673173792"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="673173136"/>
         <c:scaling>
@@ -4597,10 +4766,91 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="673145912"/>
         <c:axId val="673150832"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>charts!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$D$24:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE6F-4788-B81C-958EEFA2D20E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="673145912"/>
+        <c:axId val="673150832"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="673145912"/>
         <c:scaling>
@@ -4880,9 +5130,13 @@
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r" underflow="0.05000000000000001" overflow="1.5">
-              <cx:binSize val="0.5"/>
+              <cx:binSize val="0.10000000000000001"/>
             </cx:binning>
           </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{C4A53D9D-D500-462B-A477-664218B1B7E6}">
+          <cx:axisId val="2"/>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
@@ -4911,6 +5165,11 @@
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
     </cx:plotArea>
   </cx:chart>
   <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
@@ -4922,7 +5181,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4974,7 +5233,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4985,7 +5244,7 @@
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r" underflow="0.05000000000000001" overflow="1.5">
-              <cx:binSize val="0.5"/>
+              <cx:binSize val="0.10000000000000001"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -4993,6 +5252,16 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -5018,6 +5287,7 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
 </cx:chartSpace>
 </file>
 
@@ -5107,7 +5377,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5117,8 +5387,8 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{31667381-9478-42A8-9E16-637356B57D73}" formatIdx="0">
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="0.05000000000000001" overflow="2">
-              <cx:binSize val="1"/>
+            <cx:binning intervalClosed="r" underflow="0.05000000000000001" overflow="1">
+              <cx:binSize val="0.10000000000000001"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -5150,7 +5420,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="35"/>
+        <cx:valScaling max="25"/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -5182,7 +5452,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5192,8 +5462,8 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{2C33C1DF-39A3-4735-B42E-A81DB55148AC}" formatIdx="0">
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="0.05000000000000001" overflow="2">
-              <cx:binSize val="1"/>
+            <cx:binning intervalClosed="r" underflow="0.05000000000000001" overflow="1">
+              <cx:binSize val="0.10000000000000001"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -5261,7 +5531,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5271,8 +5541,8 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{ADB84CFC-259D-40EB-A6A7-6737623F9C59}" formatIdx="0">
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="0.05000000000000001" overflow="2">
-              <cx:binSize val="1"/>
+            <cx:binning intervalClosed="r" underflow="0.05000000000000001" overflow="1">
+              <cx:binSize val="0.10000000000000001"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -5304,7 +5574,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="35"/>
+        <cx:valScaling max="25"/>
         <cx:title>
           <cx:tx>
             <cx:rich>
@@ -13050,13 +13320,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>263525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>568325</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -13080,13 +13350,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>606425</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -13110,13 +13380,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>117475</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>422275</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
@@ -13145,16 +13415,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -13215,13 +13485,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13283,13 +13553,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13356,13 +13626,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13429,13 +13699,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13671,9 +13941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>119944</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>42332</xdr:rowOff>
+      <xdr:rowOff>70556</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -13739,9 +14009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>14111</xdr:colOff>
+      <xdr:colOff>119944</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>77611</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -14066,27 +14336,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="9" max="9" width="9.140625" style="6"/>
-    <col min="12" max="12" width="9.140625" style="6"/>
-    <col min="15" max="15" width="9.140625" style="6"/>
-    <col min="18" max="18" width="9.140625" style="6"/>
-    <col min="22" max="22" width="9.140625" style="6"/>
-    <col min="25" max="25" width="9.140625" style="6"/>
-    <col min="28" max="28" width="9.140625" style="6"/>
-    <col min="32" max="32" width="9.140625" style="6"/>
-    <col min="35" max="35" width="9.140625" style="6"/>
-    <col min="38" max="38" width="9.140625" style="6"/>
+    <col min="3" max="3" width="9.1796875" style="6"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="9" max="9" width="9.1796875" style="6"/>
+    <col min="12" max="12" width="9.1796875" style="6"/>
+    <col min="15" max="15" width="9.1796875" style="6"/>
+    <col min="18" max="18" width="9.1796875" style="6"/>
+    <col min="22" max="22" width="9.1796875" style="6"/>
+    <col min="25" max="25" width="9.1796875" style="6"/>
+    <col min="28" max="28" width="9.1796875" style="6"/>
+    <col min="32" max="32" width="9.1796875" style="6"/>
+    <col min="35" max="35" width="9.1796875" style="6"/>
+    <col min="38" max="38" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
@@ -14196,7 +14466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -14294,7 +14564,7 @@
         <v>7.8528714999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -14347,7 +14617,7 @@
         <v>0.101199831</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -14361,7 +14631,7 @@
         <v>2.1284403670000001</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -14369,7 +14639,7 @@
         <v>2.6100120059999998</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="7">
         <f>MIN(C2:C5)</f>
         <v>1.3727810650000001</v>
@@ -14463,7 +14733,7 @@
         <v>7.8528714999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -14537,7 +14807,7 @@
         <v>0.40594925599999998</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -14605,7 +14875,7 @@
         <v>0.142361086</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -14643,7 +14913,7 @@
         <v>0.41677233899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -14651,7 +14921,7 @@
         <v>0.17961290299999999</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -14659,7 +14929,7 @@
         <v>0.229778805</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -14667,7 +14937,7 @@
         <v>0.22619434499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -14675,7 +14945,7 @@
         <v>0.57284637100000002</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -14683,7 +14953,7 @@
         <v>0.52855406999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -14691,7 +14961,7 @@
         <v>0.44592516700000001</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -14699,7 +14969,7 @@
         <v>0.36420999599999998</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -14707,7 +14977,7 @@
         <v>0.345786963</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -14715,7 +14985,7 @@
         <v>0.308401276</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="7">
         <f>MIN(C7:C18)</f>
         <v>0.17961290299999999</v>
@@ -14811,7 +15081,7 @@
         <v>0.142361086</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -14924,7 +15194,7 @@
         <v>0.37077426400000002</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -15013,7 +15283,7 @@
         <v>0.277475517</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -15062,7 +15332,7 @@
         <v>0.17902151899999999</v>
       </c>
     </row>
-    <row r="23" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="7">
         <f>MIN(C20:C22)</f>
         <v>0.17712177100000001</v>
@@ -15139,9 +15409,8 @@
         <f>MIN(AD20:AD22)</f>
         <v>0.15</v>
       </c>
-      <c r="AE23" s="18">
-        <f>MIN(AE20:AE22)</f>
-        <v>0.12238237693772</v>
+      <c r="AE23" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="AF23" s="7">
         <f>MIN(AF20:AF22)</f>
@@ -15164,7 +15433,7 @@
         <v>0.17902151899999999</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -15268,7 +15537,7 @@
         <v>0.13490992800000001</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -15342,7 +15611,7 @@
         <v>0.109957634</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -15368,7 +15637,7 @@
         <v>6.9164265000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -15376,7 +15645,7 @@
         <v>5.8922558999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="7">
         <f>MIN(C24:C27)</f>
@@ -15473,7 +15742,7 @@
         <v>0.109957634</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -15547,7 +15816,7 @@
         <v>3.5935316429999999</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -15621,7 +15890,7 @@
         <v>0.294253404</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -15671,7 +15940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -15685,7 +15954,7 @@
         <v>4.3294117649999997</v>
       </c>
     </row>
-    <row r="33" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:38" x14ac:dyDescent="0.35">
       <c r="M33" t="s">
         <v>63</v>
       </c>
@@ -15693,7 +15962,7 @@
         <v>1.5540540540000001</v>
       </c>
     </row>
-    <row r="34" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:38" x14ac:dyDescent="0.35">
       <c r="M34" t="s">
         <v>64</v>
       </c>
@@ -15701,7 +15970,7 @@
         <v>1.0065789469999999</v>
       </c>
     </row>
-    <row r="35" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:38" x14ac:dyDescent="0.35">
       <c r="G35" t="s">
         <v>53</v>
       </c>
@@ -15739,7 +16008,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:38" x14ac:dyDescent="0.35">
       <c r="G36" t="s">
         <v>54</v>
       </c>
@@ -15753,7 +16022,7 @@
         <v>8.0808080000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="3:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="7"/>
       <c r="F37" s="7"/>
       <c r="I37" s="7"/>
@@ -15781,15 +16050,15 @@
       <selection activeCell="Q11" sqref="O1:Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" style="5"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="8" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>79</v>
       </c>
@@ -15824,7 +16093,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -15859,7 +16128,7 @@
         <v>5.8922558999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>72</v>
@@ -15896,7 +16165,7 @@
         <v>0.30044182600000002</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>78</v>
@@ -15933,7 +16202,7 @@
         <v>0.16848544800000001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>31</v>
@@ -15968,7 +16237,7 @@
         <v>0.17424210100000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -16007,7 +16276,7 @@
         <v>0.105094222</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>72</v>
       </c>
@@ -16043,7 +16312,7 @@
         <v>0.11869776899999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>78</v>
       </c>
@@ -16081,7 +16350,7 @@
         <v>6.9164265000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>31</v>
@@ -16120,7 +16389,7 @@
         <v>0.15046459000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -16161,7 +16430,7 @@
         <v>8.9367294999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
@@ -16197,7 +16466,7 @@
         <v>0.109957634</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>78</v>
       </c>
@@ -16208,7 +16477,7 @@
         <v>0.126811594</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>31</v>
@@ -16220,7 +16489,7 @@
         <v>0.16848544800000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -16238,7 +16507,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>72</v>
       </c>
@@ -16259,7 +16528,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
@@ -16276,7 +16545,7 @@
         <v>0.11886463799999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>31</v>
@@ -16297,7 +16566,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
@@ -16316,7 +16585,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
@@ -16335,7 +16604,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>78</v>
       </c>
@@ -16353,7 +16622,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
         <v>31</v>
@@ -16366,7 +16635,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -16393,7 +16662,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>72</v>
       </c>
@@ -16410,7 +16679,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>78</v>
       </c>
@@ -16432,7 +16701,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>31</v>
@@ -16452,7 +16721,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -16477,7 +16746,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>72</v>
       </c>
@@ -16495,7 +16764,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>78</v>
       </c>
@@ -16510,7 +16779,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>31</v>
@@ -16534,7 +16803,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -16555,7 +16824,7 @@
         <v>0.218936773</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>72</v>
       </c>
@@ -16574,7 +16843,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>78</v>
       </c>
@@ -16592,7 +16861,7 @@
         <v>0.231884058</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
         <v>31</v>
@@ -16614,7 +16883,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -16636,7 +16905,7 @@
         <v>0.11869776899999999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>72</v>
       </c>
@@ -16649,7 +16918,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>78</v>
       </c>
@@ -16672,7 +16941,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
         <v>31</v>
@@ -16691,7 +16960,7 @@
         <v>5.3770693000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
@@ -16715,7 +16984,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>72</v>
       </c>
@@ -16731,7 +17000,7 @@
         <v>7.1111111000000005E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>78</v>
       </c>
@@ -16752,7 +17021,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
         <v>31</v>
@@ -16772,13 +17041,13 @@
         <v>6.9164265000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G43" s="5" t="s">
         <v>69</v>
       </c>
@@ -16792,7 +17061,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G44" s="5"/>
       <c r="I44" s="5" t="s">
         <v>34</v>
@@ -16801,7 +17070,7 @@
         <v>0.221263927</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G45" s="5"/>
       <c r="H45" t="s">
         <v>29</v>
@@ -16813,7 +17082,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G46" s="5"/>
       <c r="I46" s="5" t="s">
         <v>34</v>
@@ -16822,7 +17091,7 @@
         <v>0.14164305899999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G47" s="5"/>
       <c r="H47" t="s">
         <v>31</v>
@@ -16834,7 +17103,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
@@ -16844,13 +17113,13 @@
         <v>0.15046459000000001</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G50" s="5" t="s">
         <v>70</v>
       </c>
@@ -16864,7 +17133,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G51" s="5"/>
       <c r="I51" s="5" t="s">
         <v>34</v>
@@ -16873,7 +17142,7 @@
         <v>0.101199831</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G52" s="5"/>
       <c r="H52" t="s">
         <v>29</v>
@@ -16885,7 +17154,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G53" s="5"/>
       <c r="I53" s="5" t="s">
         <v>34</v>
@@ -16894,7 +17163,7 @@
         <v>0.121312587</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G54" s="5"/>
       <c r="H54" t="s">
         <v>31</v>
@@ -16906,7 +17175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5" t="s">
@@ -16916,13 +17185,13 @@
         <v>8.9367294999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G57" s="5" t="s">
         <v>71</v>
       </c>
@@ -16936,7 +17205,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I58" s="5" t="s">
         <v>34</v>
       </c>
@@ -16944,7 +17213,7 @@
         <v>7.8528714999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.35">
       <c r="H59" t="s">
         <v>29</v>
       </c>
@@ -16955,7 +17224,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I60" s="5" t="s">
         <v>34</v>
       </c>
@@ -16963,7 +17232,7 @@
         <v>0.17902151899999999</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.35">
       <c r="H61" t="s">
         <v>31</v>
       </c>
@@ -16974,7 +17243,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I62" s="5" t="s">
         <v>34</v>
       </c>
@@ -16998,18 +17267,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -17019,8 +17289,11 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -17030,12 +17303,15 @@
       <c r="C2" s="1">
         <v>0.11886463799999999</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E2" s="17">
         <f>(B2-C2)/B2</f>
         <v>0.39662620304568535</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -17045,12 +17321,15 @@
       <c r="C3" s="1">
         <v>0.119010116</v>
       </c>
-      <c r="D3" s="17">
-        <f t="shared" ref="D3:D8" si="0">(B3-C3)/B3</f>
+      <c r="D3" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" ref="E3:E8" si="0">(B3-C3)/B3</f>
         <v>-0.19010115999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -17060,12 +17339,15 @@
       <c r="C4" s="1">
         <v>0.218936773</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>0.29375234516129034</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -17075,12 +17357,15 @@
       <c r="C5" s="1">
         <v>5.3770693000000001E-2</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>0.58637928461538458</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -17090,12 +17375,15 @@
       <c r="C6" s="1">
         <v>0.221263927</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>-0.22924403888888892</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -17105,12 +17393,15 @@
       <c r="C7" s="1">
         <v>0.101199831</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>0.36750105625000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -17120,12 +17411,15 @@
       <c r="C8" s="1">
         <v>7.8528714999999999E-2</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0.21471285000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -17136,7 +17430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -17146,12 +17440,15 @@
       <c r="C12" s="1">
         <v>0.118769824</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E12" s="17">
         <f>(B12-C12)/B12</f>
         <v>-4.1840561403508697E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -17161,12 +17458,15 @@
       <c r="C13" s="1">
         <v>0.126811594</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E13" s="17">
         <f>(B13-C13)/B13</f>
         <v>-0.26811593999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -17176,12 +17476,15 @@
       <c r="C14" s="1">
         <v>0.25680134799999998</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E14" s="17">
         <f>(B14-C14)/B14</f>
         <v>-0.22286356190476186</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -17191,12 +17494,15 @@
       <c r="C15" s="1">
         <v>0.22089226200000001</v>
       </c>
-      <c r="D15" s="17">
-        <f t="shared" ref="D15:D20" si="1">(B15-C15)/B15</f>
+      <c r="D15" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" ref="E15:E20" si="1">(B15-C15)/B15</f>
         <v>-1.0081114727272729</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -17206,12 +17512,15 @@
       <c r="C16" s="1">
         <v>0.231884058</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E16" s="17">
         <f t="shared" si="1"/>
         <v>-0.10420980000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -17221,12 +17530,15 @@
       <c r="C17" s="1">
         <v>7.1111111000000005E-2</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E17" s="17">
         <f t="shared" si="1"/>
         <v>0.35353535454545448</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -17236,12 +17548,15 @@
       <c r="C18" s="1">
         <v>0.14164305899999999</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E18" s="17">
         <f t="shared" si="1"/>
         <v>5.5712940000000044E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -17251,12 +17566,15 @@
       <c r="C19" s="1">
         <v>0.121312587</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E19" s="17">
         <f t="shared" si="1"/>
         <v>-0.10284169999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -17266,20 +17584,25 @@
       <c r="C20" s="1">
         <v>0.17902151899999999</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E20" s="17">
         <f t="shared" si="1"/>
         <v>-0.62746835454545447</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -17290,7 +17613,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -17300,12 +17623,15 @@
       <c r="C24" s="1">
         <v>0.30044182600000002</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E24" s="17">
         <f>(B24-C24)/B24</f>
         <v>-1.0029455066666668</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -17315,12 +17641,15 @@
       <c r="C25" s="1">
         <v>0.16848544800000001</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E25" s="17">
         <f>(B25-C25)/B25</f>
         <v>-0.53168589090909102</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -17330,12 +17659,15 @@
       <c r="C26" s="1">
         <v>0.17424210100000001</v>
       </c>
-      <c r="D26" s="17">
-        <f t="shared" ref="D26:D31" si="2">(B26-C26)/B26</f>
+      <c r="D26" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" ref="E26:E31" si="2">(B26-C26)/B26</f>
         <v>-0.34032385384615388</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -17345,12 +17677,15 @@
       <c r="C27" s="1">
         <v>0.11869776899999999</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E27" s="17">
         <f t="shared" si="2"/>
         <v>-7.907062727272722E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -17360,12 +17695,15 @@
       <c r="C28" s="1">
         <v>6.9164265000000003E-2</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E28" s="17">
         <f t="shared" si="2"/>
         <v>0.46796719230769229</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -17375,12 +17713,15 @@
       <c r="C29" s="1">
         <v>0.15046459000000001</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E29" s="17">
         <f t="shared" si="2"/>
         <v>0.11491417647058824</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -17390,12 +17731,15 @@
       <c r="C30" s="1">
         <v>8.9367294999999999E-2</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E30" s="17">
         <f t="shared" si="2"/>
         <v>0.10632705000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -17405,45 +17749,104 @@
       <c r="C31" s="1">
         <v>0.109957634</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E31" s="17">
         <f t="shared" si="2"/>
         <v>-0.37447042499999994</v>
       </c>
-      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="D34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G35" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G36" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:D2 D4 D6 D8">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:D3 D5 D7">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:C5">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C6">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -17455,7 +17858,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3">
+  <conditionalFormatting sqref="B7:C7">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -17467,7 +17870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
+  <conditionalFormatting sqref="B8:C8">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -17479,7 +17882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5">
+  <conditionalFormatting sqref="B12:C12">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -17491,7 +17894,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C6">
+  <conditionalFormatting sqref="B13:C13">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -17503,7 +17906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C7">
+  <conditionalFormatting sqref="B14:C14">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -17515,7 +17918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
+  <conditionalFormatting sqref="B15:C15">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -17527,7 +17930,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:C12">
+  <conditionalFormatting sqref="B16:C16">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -17539,7 +17942,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C13">
+  <conditionalFormatting sqref="B17:C17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -17551,7 +17954,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14">
+  <conditionalFormatting sqref="B18:C18">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -17563,7 +17966,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C15">
+  <conditionalFormatting sqref="B19:C19">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -17575,7 +17978,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16">
+  <conditionalFormatting sqref="B20:C20">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -17587,7 +17990,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17">
+  <conditionalFormatting sqref="B24:C24">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -17599,7 +18002,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C18">
+  <conditionalFormatting sqref="B25:C25">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -17611,7 +18014,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19">
+  <conditionalFormatting sqref="B26:C26">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -17623,7 +18026,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20">
+  <conditionalFormatting sqref="B27:C27">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -17635,7 +18038,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
+  <conditionalFormatting sqref="B28:C28">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -17647,7 +18050,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:C25">
+  <conditionalFormatting sqref="B29:C29">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -17659,7 +18062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C26">
+  <conditionalFormatting sqref="B30:C30">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -17671,7 +18074,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
+  <conditionalFormatting sqref="B31:C31">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -17683,7 +18086,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
+  <conditionalFormatting sqref="D12 D14 D16:D20">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -17695,7 +18098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
+  <conditionalFormatting sqref="D13 D15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -17707,7 +18110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
+  <conditionalFormatting sqref="D24:D27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -17719,7 +18122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:C31">
+  <conditionalFormatting sqref="D28:D31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -17738,207 +18141,215 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A20:A23"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>0.02</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>103</v>
-      </c>
-      <c r="B2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>90</v>
       </c>
       <c r="B3">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>102</v>
-      </c>
-      <c r="B8">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>87</v>
       </c>
       <c r="B9">
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>85</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>88</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>98</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>93</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>86</v>
-      </c>
-      <c r="B15">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>101</v>
       </c>
       <c r="B16">
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>82</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>94</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>0.46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>99</v>
-      </c>
-      <c r="B20">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>83</v>
       </c>
       <c r="B21">
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>2</v>
       </c>
     </row>
@@ -17947,7 +18358,8 @@
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17955,453 +18367,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2">
         <v>0.02</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>103</v>
-      </c>
-      <c r="B2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>153</v>
       </c>
       <c r="B3">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B9">
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B13">
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>88</v>
-      </c>
-      <c r="B16">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>142</v>
       </c>
       <c r="B17">
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>98</v>
-      </c>
-      <c r="B21">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>132</v>
       </c>
       <c r="B22">
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B23">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24">
         <v>0.17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25">
         <v>0.17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B26">
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B27">
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B28">
         <v>0.17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B29">
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B30">
         <v>0.17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31">
         <v>0.17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B32">
         <v>0.17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33">
         <v>0.17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B34">
         <v>0.17</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B35">
         <v>0.17</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B36">
         <v>0.17</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B37">
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B38">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B39">
         <v>0.18</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>0.18</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B41">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42">
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43">
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44">
         <v>0.35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45">
         <v>0.36</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>0.46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47">
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48">
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B49">
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B50">
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B51">
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B52">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54">
         <v>1.6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>107</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -18409,337 +18821,338 @@
     <sortCondition ref="B91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>97</v>
-      </c>
-      <c r="B1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>92</v>
       </c>
       <c r="B2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="B5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B8">
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B9">
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B11">
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>88</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="B16">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17">
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>86</v>
-      </c>
-      <c r="B17">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>147</v>
       </c>
       <c r="B18">
         <v>0.17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B19">
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B20">
         <v>0.17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B21">
         <v>0.17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B22">
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B23">
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="B24">
         <v>0.17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B25">
         <v>0.17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="B26">
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B27">
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B28">
         <v>0.17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B29">
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="B30">
         <v>0.17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B31">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B32">
         <v>0.18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B34">
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36">
         <v>0.35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37">
         <v>0.36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>94</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>0.46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -18747,78 +19160,76 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B41">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B42">
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>106</v>
-      </c>
-      <c r="B43">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>184</v>
       </c>
       <c r="B44">
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="B45">
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>169</v>
       </c>
       <c r="B47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>181</v>
+        <v>155</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -18834,11 +19245,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
